--- a/data/trans_camb/P5_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,5</t>
+          <t>-7,65; 1,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,26</t>
+          <t>-2,2; 1,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,01</t>
+          <t>-3,81; 0,57</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-1,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-0,75%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 1,56</t>
+          <t>-7,91; 1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,28</t>
+          <t>-2,25; 1,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,04</t>
+          <t>-3,92; 0,59</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,07</t>
+          <t>-1,08; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,61</t>
+          <t>-2,31; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 1,38</t>
+          <t>-1,19; 1,33</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,1%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,13</t>
+          <t>-1,1; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,66</t>
+          <t>-2,34; 1,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,42</t>
+          <t>-1,21; 1,36</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,42</t>
+          <t>-4,42; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,9</t>
+          <t>-4,25; 2,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,24</t>
+          <t>-3,15; 1,45</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>-0,54%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,49</t>
+          <t>-4,43; 2,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,95</t>
+          <t>-4,34; 2,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,28</t>
+          <t>-3,18; 1,48</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,07</t>
+          <t>-3,03; 0,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,71</t>
+          <t>-1,52; 0,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,55</t>
+          <t>-1,69; 0,54</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,1</t>
+          <t>-3,14; 0,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,73</t>
+          <t>-1,54; 0,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,57</t>
+          <t>-1,73; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_7-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.763250741223287</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4908876422945574</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.62049726005311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 1,36</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 1,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 0,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.364679824941245</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.399687215600988</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.863634439677102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,14%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,75%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.473576711921072</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.07582090408472</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6783616946130868</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; 1,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 1,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 0,59</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.007882943392965533</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.005036085517595489</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.00638615556803107</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05475924871624307</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.02445479216918584</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.02950417470493523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 2,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 1,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 1,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.01536076603591652</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.01110946728561343</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.007017630949352798</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1413673847270647</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1300253539726071</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.004461074759976036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 1,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 1,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.980478712975892</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.152558776540791</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.391780850140426</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.140273291422701</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.578575468038909</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.233906305886262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 2,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 2,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 1,45</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.001447303156556223</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.001326299239530115</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>4.558731740350477e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,49%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.0203151281678175</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.02178977190072502</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.014200786839029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 2,2</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 2,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 1,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02202663283581673</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01626473680430075</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01267321149166048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.2424699707360478</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.935728318571484</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.078024228744867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 0,89</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 0,76</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 0,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.297227476673133</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.987573891267521</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.521403517365013</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,41%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2.486497060601637</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.697204184881118</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.11143881890157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 0,92</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 0,79</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 0,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.002457906208824587</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01979326702050087</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01097463345813579</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.03331597419138453</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.0816783822717746</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.04572406517395417</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.02554743047132842</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.01748417668263695</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.01131736375992789</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3418611308804831</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.519290561152197</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.4326260794511372</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.325027077887751</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.859212012766129</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.573044836502627</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.9000752162130855</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6114434753433716</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4982505837896985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.003510231580937827</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.005313507325978206</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.00443427860977205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.02389074316132602</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0189117736576782</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.01606917216771555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.009279529546888864</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.006321557308351007</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.005127068096086879</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
